--- a/araz_stores_by_date.xlsx
+++ b/araz_stores_by_date.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Self_study_analysis\grocery_store_locations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87642FBD-3F3A-4589-85E5-C0182154B234}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B6331E-7AC6-4AB2-B26A-89B49CD6A0B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -201,27 +201,9 @@
     <t>24.12.2021</t>
   </si>
   <si>
-    <t xml:space="preserve"> 15.12.2021 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 02.12.2021 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 26.11.2021 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 30.10.2021 </t>
-  </si>
-  <si>
     <t>29.10.2021</t>
   </si>
   <si>
-    <t xml:space="preserve"> 28.10.2021 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 04.10.2021</t>
-  </si>
-  <si>
     <t>21.09.2021</t>
   </si>
   <si>
@@ -255,12 +237,6 @@
     <t>07.05.2021</t>
   </si>
   <si>
-    <t xml:space="preserve"> 18.03.2021 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 16.03.2021 </t>
-  </si>
-  <si>
     <t>27.02.2021</t>
   </si>
   <si>
@@ -268,6 +244,30 @@
   </si>
   <si>
     <t>Tarix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.03.2021 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.03.2021 </t>
+  </si>
+  <si>
+    <t>04.10.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.10.2021 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.10.2021 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.11.2021 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">02.12.2021 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.12.2021 </t>
   </si>
 </sst>
 </file>
@@ -316,11 +316,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -604,28 +608,28 @@
   <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="59.36328125" customWidth="1"/>
-    <col min="2" max="2" width="44.08984375" customWidth="1"/>
+    <col min="2" max="2" width="44.08984375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -633,7 +637,7 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -641,7 +645,7 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -649,7 +653,7 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>43</v>
       </c>
     </row>
@@ -657,7 +661,7 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>44</v>
       </c>
     </row>
@@ -665,7 +669,7 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>44</v>
       </c>
     </row>
@@ -673,7 +677,7 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>45</v>
       </c>
     </row>
@@ -681,7 +685,7 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -689,7 +693,7 @@
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -697,7 +701,7 @@
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>48</v>
       </c>
     </row>
@@ -705,7 +709,7 @@
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -713,7 +717,7 @@
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -721,7 +725,7 @@
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -729,7 +733,7 @@
       <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -737,7 +741,7 @@
       <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>52</v>
       </c>
     </row>
@@ -745,7 +749,7 @@
       <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>53</v>
       </c>
     </row>
@@ -753,7 +757,7 @@
       <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -761,7 +765,7 @@
       <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>55</v>
       </c>
     </row>
@@ -769,7 +773,7 @@
       <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>56</v>
       </c>
     </row>
@@ -777,7 +781,7 @@
       <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -785,168 +789,168 @@
       <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
-        <v>58</v>
+      <c r="B22" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
-        <v>59</v>
+      <c r="B23" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
-        <v>60</v>
+      <c r="B24" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>61</v>
+      <c r="B25" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
-        <v>62</v>
+      <c r="B26" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
-        <v>63</v>
+      <c r="B27" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
-        <v>64</v>
+      <c r="B28" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
-        <v>65</v>
+      <c r="B29" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>20</v>
       </c>
-      <c r="B30" t="s">
-        <v>66</v>
+      <c r="B30" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>28</v>
       </c>
-      <c r="B31" t="s">
-        <v>67</v>
+      <c r="B31" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>29</v>
       </c>
-      <c r="B32" t="s">
-        <v>68</v>
+      <c r="B32" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>30</v>
       </c>
-      <c r="B33" t="s">
-        <v>69</v>
+      <c r="B33" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>31</v>
       </c>
-      <c r="B34" t="s">
-        <v>70</v>
+      <c r="B34" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>32</v>
       </c>
-      <c r="B35" t="s">
-        <v>71</v>
+      <c r="B35" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>33</v>
       </c>
-      <c r="B36" t="s">
-        <v>72</v>
+      <c r="B36" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>34</v>
       </c>
-      <c r="B37" t="s">
-        <v>73</v>
+      <c r="B37" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>35</v>
       </c>
-      <c r="B38" t="s">
-        <v>74</v>
+      <c r="B38" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>36</v>
       </c>
-      <c r="B39" t="s">
-        <v>75</v>
+      <c r="B39" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>37</v>
       </c>
-      <c r="B40" t="s">
-        <v>76</v>
+      <c r="B40" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>38</v>
       </c>
-      <c r="B41" t="s">
-        <v>77</v>
+      <c r="B41" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>39</v>
       </c>
-      <c r="B42" t="s">
-        <v>78</v>
+      <c r="B42" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
